--- a/hiqu/Performance Evaluation/September 2024/Support and Admin/Asiya Bibi.xlsx
+++ b/hiqu/Performance Evaluation/September 2024/Support and Admin/Asiya Bibi.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\docs\hiqu\Performance Evaluation\ScoreCard.Arshad\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\docs\hiqu\Performance Evaluation\September 2024\Support and Admin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ABE048C-B461-4679-B2F9-B4658612CD84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1BCE0E6-8164-4F49-B9E1-132F8DD4C3D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-3840" windowWidth="29040" windowHeight="15720" xr2:uid="{C18F1D24-2B51-47D5-ADD3-847EF68750D1}"/>
   </bookViews>
@@ -435,25 +435,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -463,9 +454,18 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -812,8 +812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9386B91B-8D62-4F20-9CB7-F711303AA283}">
   <dimension ref="B2:N35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -824,18 +824,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="16"/>
+      <c r="C2" s="25"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
     </row>
@@ -843,11 +843,11 @@
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
@@ -855,11 +855,11 @@
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
     </row>
@@ -867,11 +867,11 @@
       <c r="B7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
     </row>
@@ -879,11 +879,11 @@
       <c r="B8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
     </row>
@@ -891,11 +891,11 @@
       <c r="B9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
     </row>
@@ -903,12 +903,12 @@
       <c r="B10" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="22">
+      <c r="C10" s="28">
         <f ca="1">(_xlfn.DAYS(TODAY(),C9)/365)</f>
-        <v>7.8849315068493153</v>
-      </c>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
+        <v>7.9369863013698634</v>
+      </c>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
     </row>
@@ -916,29 +916,29 @@
       <c r="B11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
     </row>
     <row r="13" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="7" t="s">
@@ -968,23 +968,23 @@
       <c r="B16" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="27">
+      <c r="C16" s="15">
         <v>0.75</v>
       </c>
-      <c r="E16" s="17" t="s">
+      <c r="E16" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F16" s="18"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="27">
-        <v>0</v>
-      </c>
-      <c r="J16" s="24" t="s">
+      <c r="F16" s="19"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="15">
+        <v>0</v>
+      </c>
+      <c r="J16" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="K16" s="25"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="28">
+      <c r="K16" s="22"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="16">
         <v>0</v>
       </c>
     </row>
@@ -992,23 +992,23 @@
       <c r="B17" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="27">
+      <c r="C17" s="15">
         <v>0.8</v>
       </c>
-      <c r="E17" s="17" t="s">
+      <c r="E17" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="18"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="27">
-        <v>0</v>
-      </c>
-      <c r="J17" s="24" t="s">
+      <c r="F17" s="19"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="15">
+        <v>0</v>
+      </c>
+      <c r="J17" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="K17" s="25"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="28">
+      <c r="K17" s="22"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="16">
         <v>0</v>
       </c>
     </row>
@@ -1016,23 +1016,23 @@
       <c r="B18" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="27">
+      <c r="C18" s="15">
         <v>0.6</v>
       </c>
-      <c r="E18" s="17" t="s">
+      <c r="E18" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F18" s="18"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="27">
-        <v>0</v>
-      </c>
-      <c r="J18" s="24" t="s">
+      <c r="F18" s="19"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="15">
+        <v>0</v>
+      </c>
+      <c r="J18" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="K18" s="25"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="28">
+      <c r="K18" s="22"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="16">
         <v>0</v>
       </c>
     </row>
@@ -1040,23 +1040,23 @@
       <c r="B19" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="27">
+      <c r="C19" s="15">
         <v>0.6</v>
       </c>
-      <c r="E19" s="17" t="s">
+      <c r="E19" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F19" s="18"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="27">
-        <v>0</v>
-      </c>
-      <c r="J19" s="24" t="s">
+      <c r="F19" s="19"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="15">
+        <v>0</v>
+      </c>
+      <c r="J19" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="K19" s="25"/>
-      <c r="L19" s="26"/>
-      <c r="M19" s="28">
+      <c r="K19" s="22"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="16">
         <v>0</v>
       </c>
     </row>
@@ -1064,23 +1064,23 @@
       <c r="B20" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="27">
+      <c r="C20" s="15">
         <v>0.9</v>
       </c>
-      <c r="E20" s="17" t="s">
+      <c r="E20" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F20" s="18"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="27">
-        <v>0</v>
-      </c>
-      <c r="J20" s="24" t="s">
+      <c r="F20" s="19"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="15">
+        <v>0</v>
+      </c>
+      <c r="J20" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="K20" s="25"/>
-      <c r="L20" s="26"/>
-      <c r="M20" s="28">
+      <c r="K20" s="22"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="16">
         <v>0</v>
       </c>
     </row>
@@ -1088,23 +1088,23 @@
       <c r="B21" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="27">
+      <c r="C21" s="15">
         <v>0.8</v>
       </c>
-      <c r="E21" s="17" t="s">
+      <c r="E21" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F21" s="18"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="27">
-        <v>0</v>
-      </c>
-      <c r="J21" s="24" t="s">
+      <c r="F21" s="19"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="15">
+        <v>0</v>
+      </c>
+      <c r="J21" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="K21" s="25"/>
-      <c r="L21" s="26"/>
-      <c r="M21" s="28">
+      <c r="K21" s="22"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="16">
         <v>0</v>
       </c>
     </row>
@@ -1112,23 +1112,23 @@
       <c r="B22" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="27">
+      <c r="C22" s="15">
         <v>0.8</v>
       </c>
-      <c r="E22" s="17" t="s">
+      <c r="E22" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="F22" s="18"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="27">
-        <v>0</v>
-      </c>
-      <c r="J22" s="24" t="s">
+      <c r="F22" s="19"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="15">
+        <v>0</v>
+      </c>
+      <c r="J22" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="K22" s="25"/>
-      <c r="L22" s="26"/>
-      <c r="M22" s="28">
+      <c r="K22" s="22"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="16">
         <v>0</v>
       </c>
     </row>
@@ -1136,38 +1136,38 @@
       <c r="B23" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="27">
+      <c r="C23" s="15">
         <v>0.7</v>
       </c>
-      <c r="E23" s="17"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="27"/>
-      <c r="J23" s="24" t="s">
+      <c r="E23" s="18"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="15"/>
+      <c r="J23" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="K23" s="25"/>
-      <c r="L23" s="26"/>
-      <c r="M23" s="28">
+      <c r="K23" s="22"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="23" t="s">
+      <c r="B25" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="23"/>
-      <c r="M25" s="23"/>
-      <c r="N25" s="23"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="12" t="s">
@@ -1214,11 +1214,15 @@
       <c r="B28" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="1">
+      <c r="C28" s="2">
+        <v>21</v>
+      </c>
+      <c r="D28" s="2">
         <v>22</v>
       </c>
-      <c r="E28" s="1"/>
+      <c r="E28" s="2">
+        <v>19</v>
+      </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -1233,11 +1237,15 @@
       <c r="B29" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="1">
+      <c r="C29" s="2">
+        <v>11</v>
+      </c>
+      <c r="D29" s="2">
         <v>22</v>
       </c>
-      <c r="E29" s="1"/>
+      <c r="E29" s="2">
+        <v>19</v>
+      </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -1252,11 +1260,15 @@
       <c r="B30" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="1">
-        <v>0</v>
-      </c>
-      <c r="E30" s="1"/>
+      <c r="C30" s="2">
+        <v>10</v>
+      </c>
+      <c r="D30" s="2">
+        <v>0</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0</v>
+      </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -1271,11 +1283,15 @@
       <c r="B31" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="1">
+      <c r="C31" s="2">
+        <v>6</v>
+      </c>
+      <c r="D31" s="2">
         <v>16</v>
       </c>
-      <c r="E31" s="1"/>
+      <c r="E31" s="2">
+        <v>3</v>
+      </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -1290,11 +1306,15 @@
       <c r="B32" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="1">
+      <c r="C32" s="2">
+        <v>5</v>
+      </c>
+      <c r="D32" s="2">
         <v>6</v>
       </c>
-      <c r="E32" s="1"/>
+      <c r="E32" s="2">
+        <v>9</v>
+      </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -1309,11 +1329,15 @@
       <c r="B33" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C33" s="2"/>
-      <c r="D33" s="1">
+      <c r="C33" s="2">
+        <v>0</v>
+      </c>
+      <c r="D33" s="2">
         <v>1</v>
       </c>
-      <c r="E33" s="1"/>
+      <c r="E33" s="2">
+        <v>0</v>
+      </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -1328,11 +1352,15 @@
       <c r="B34" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C34" s="2"/>
-      <c r="D34" s="1">
+      <c r="C34" s="2">
+        <v>3</v>
+      </c>
+      <c r="D34" s="2">
         <v>2</v>
       </c>
-      <c r="E34" s="1"/>
+      <c r="E34" s="2">
+        <v>9</v>
+      </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
@@ -1347,11 +1375,15 @@
       <c r="B35" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="2"/>
-      <c r="D35" s="1">
+      <c r="C35" s="2">
+        <v>2</v>
+      </c>
+      <c r="D35" s="2">
         <v>4</v>
       </c>
-      <c r="E35" s="1"/>
+      <c r="E35" s="2">
+        <v>0</v>
+      </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
@@ -1364,6 +1396,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="B13:M13"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
     <mergeCell ref="B25:N25"/>
     <mergeCell ref="E21:G21"/>
     <mergeCell ref="E22:G22"/>
@@ -1380,17 +1423,6 @@
     <mergeCell ref="E17:G17"/>
     <mergeCell ref="E18:G18"/>
     <mergeCell ref="E19:G19"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="B13:M13"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="C16:C23">

--- a/hiqu/Performance Evaluation/September 2024/Support and Admin/Asiya Bibi.xlsx
+++ b/hiqu/Performance Evaluation/September 2024/Support and Admin/Asiya Bibi.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\docs\hiqu\Performance Evaluation\September 2024\Support and Admin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1BCE0E6-8164-4F49-B9E1-132F8DD4C3D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34C8662D-AA0D-4183-A1E2-ABDE358F152B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-3840" windowWidth="29040" windowHeight="15720" xr2:uid="{C18F1D24-2B51-47D5-ADD3-847EF68750D1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{C18F1D24-2B51-47D5-ADD3-847EF68750D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Employee" sheetId="2" r:id="rId1"/>
+    <sheet name="Quarterly Evaluation" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="67">
   <si>
     <t>Employee Name</t>
   </si>
@@ -113,9 +114,6 @@
     <t>Overall Commitment</t>
   </si>
   <si>
-    <t>%</t>
-  </si>
-  <si>
     <t>Database understanding</t>
   </si>
   <si>
@@ -225,6 +223,21 @@
   </si>
   <si>
     <t>11/01/2016</t>
+  </si>
+  <si>
+    <t>Quarterly Evaluation (%)</t>
+  </si>
+  <si>
+    <t>Jul-Sep</t>
+  </si>
+  <si>
+    <t>Oct-Dec</t>
+  </si>
+  <si>
+    <t>Jan-Mar</t>
+  </si>
+  <si>
+    <t>Apr-Jun</t>
   </si>
 </sst>
 </file>
@@ -339,7 +352,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -388,17 +401,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -409,7 +411,7 @@
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -428,30 +430,13 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -460,12 +445,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -810,10 +802,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9386B91B-8D62-4F20-9CB7-F711303AA283}">
-  <dimension ref="B2:N35"/>
+  <dimension ref="B2:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -823,583 +815,354 @@
     <col min="4" max="14" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="25"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="24" t="s">
+    <row r="2" spans="2:14" ht="21" x14ac:dyDescent="0.35">
+      <c r="B2" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="16"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
+      <c r="C6" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
+      <c r="C7" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
+      <c r="C8" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
+      <c r="C9" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="28">
+        <v>44</v>
+      </c>
+      <c r="C10" s="18">
         <f ca="1">(_xlfn.DAYS(TODAY(),C9)/365)</f>
-        <v>7.9369863013698634</v>
-      </c>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
+        <v>7.9452054794520546</v>
+      </c>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
+      <c r="C11" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
     </row>
-    <row r="13" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B13" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="26"/>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="5" t="s">
+    <row r="14" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B16" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="L16" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="M16" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="N16" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B17" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="2">
+        <v>21</v>
+      </c>
+      <c r="D17" s="2">
+        <v>22</v>
+      </c>
+      <c r="E17" s="2">
         <v>19</v>
       </c>
-      <c r="C16" s="15">
-        <v>0.75</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="F16" s="19"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="15">
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B18" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="2">
+        <v>11</v>
+      </c>
+      <c r="D18" s="2">
+        <v>22</v>
+      </c>
+      <c r="E18" s="2">
+        <v>19</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B19" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="2">
+        <v>10</v>
+      </c>
+      <c r="D19" s="2">
         <v>0</v>
       </c>
-      <c r="J16" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="K16" s="22"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="16">
+      <c r="E19" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="15">
-        <v>0.8</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="F17" s="19"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="15">
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B20" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="2">
+        <v>6</v>
+      </c>
+      <c r="D20" s="2">
+        <v>16</v>
+      </c>
+      <c r="E20" s="2">
+        <v>3</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B21" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="2">
+        <v>5</v>
+      </c>
+      <c r="D21" s="2">
+        <v>6</v>
+      </c>
+      <c r="E21" s="2">
+        <v>9</v>
+      </c>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B22" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="2">
         <v>0</v>
       </c>
-      <c r="J17" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="K17" s="22"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="16">
+      <c r="D22" s="2">
+        <v>1</v>
+      </c>
+      <c r="E22" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B18" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="15">
-        <v>0.6</v>
-      </c>
-      <c r="E18" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="F18" s="19"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="15">
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B23" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="2">
+        <v>3</v>
+      </c>
+      <c r="D23" s="2">
+        <v>2</v>
+      </c>
+      <c r="E23" s="2">
+        <v>9</v>
+      </c>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B24" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="2">
+        <v>2</v>
+      </c>
+      <c r="D24" s="2">
+        <v>4</v>
+      </c>
+      <c r="E24" s="2">
         <v>0</v>
       </c>
-      <c r="J18" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="K18" s="22"/>
-      <c r="L18" s="23"/>
-      <c r="M18" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B19" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="15">
-        <v>0.6</v>
-      </c>
-      <c r="E19" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="F19" s="19"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="15">
-        <v>0</v>
-      </c>
-      <c r="J19" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="K19" s="22"/>
-      <c r="L19" s="23"/>
-      <c r="M19" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B20" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="15">
-        <v>0.9</v>
-      </c>
-      <c r="E20" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="F20" s="19"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="15">
-        <v>0</v>
-      </c>
-      <c r="J20" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="K20" s="22"/>
-      <c r="L20" s="23"/>
-      <c r="M20" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B21" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="15">
-        <v>0.8</v>
-      </c>
-      <c r="E21" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="F21" s="19"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="15">
-        <v>0</v>
-      </c>
-      <c r="J21" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="K21" s="22"/>
-      <c r="L21" s="23"/>
-      <c r="M21" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B22" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="15">
-        <v>0.8</v>
-      </c>
-      <c r="E22" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="F22" s="19"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="15">
-        <v>0</v>
-      </c>
-      <c r="J22" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="K22" s="22"/>
-      <c r="L22" s="23"/>
-      <c r="M22" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B23" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" s="15">
-        <v>0.7</v>
-      </c>
-      <c r="E23" s="18"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="15"/>
-      <c r="J23" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="K23" s="22"/>
-      <c r="L23" s="23"/>
-      <c r="M23" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="17"/>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B27" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F27" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="H27" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="I27" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="J27" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="K27" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="L27" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="M27" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="N27" s="13" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B28" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28" s="2">
-        <v>21</v>
-      </c>
-      <c r="D28" s="2">
-        <v>22</v>
-      </c>
-      <c r="E28" s="2">
-        <v>19</v>
-      </c>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B29" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29" s="2">
-        <v>11</v>
-      </c>
-      <c r="D29" s="2">
-        <v>22</v>
-      </c>
-      <c r="E29" s="2">
-        <v>19</v>
-      </c>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B30" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C30" s="2">
-        <v>10</v>
-      </c>
-      <c r="D30" s="2">
-        <v>0</v>
-      </c>
-      <c r="E30" s="2">
-        <v>0</v>
-      </c>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B31" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31" s="2">
-        <v>6</v>
-      </c>
-      <c r="D31" s="2">
-        <v>16</v>
-      </c>
-      <c r="E31" s="2">
-        <v>3</v>
-      </c>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B32" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C32" s="2">
-        <v>5</v>
-      </c>
-      <c r="D32" s="2">
-        <v>6</v>
-      </c>
-      <c r="E32" s="2">
-        <v>9</v>
-      </c>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B33" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C33" s="2">
-        <v>0</v>
-      </c>
-      <c r="D33" s="2">
-        <v>1</v>
-      </c>
-      <c r="E33" s="2">
-        <v>0</v>
-      </c>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B34" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C34" s="2">
-        <v>3</v>
-      </c>
-      <c r="D34" s="2">
-        <v>2</v>
-      </c>
-      <c r="E34" s="2">
-        <v>9</v>
-      </c>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B35" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C35" s="2">
-        <v>2</v>
-      </c>
-      <c r="D35" s="2">
-        <v>4</v>
-      </c>
-      <c r="E35" s="2">
-        <v>0</v>
-      </c>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="10">
+    <mergeCell ref="B14:N14"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="B13:M13"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="C7:E7"/>
@@ -1407,26 +1170,396 @@
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="C11:E11"/>
-    <mergeCell ref="B25:N25"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="E19:G19"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
-  <conditionalFormatting sqref="C16:C23">
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41A4583A-BE9C-417D-AC77-2C95E865C8B4}">
+  <dimension ref="B3:M37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="12.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B3" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C4" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="22">
+        <v>0.75</v>
+      </c>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="22">
+        <v>0.8</v>
+      </c>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="22">
+        <v>0.6</v>
+      </c>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="22">
+        <v>0.6</v>
+      </c>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="22">
+        <v>0.9</v>
+      </c>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="22">
+        <v>0.8</v>
+      </c>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="22">
+        <v>0.8</v>
+      </c>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B13" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="22">
+        <v>0.7</v>
+      </c>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C16" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="22">
+        <v>0</v>
+      </c>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="22">
+        <v>0</v>
+      </c>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="22">
+        <v>0</v>
+      </c>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="22">
+        <v>0</v>
+      </c>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="22">
+        <v>0</v>
+      </c>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="22">
+        <v>0</v>
+      </c>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="22">
+        <v>0</v>
+      </c>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="10"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C28" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="22">
+        <v>0</v>
+      </c>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" s="22">
+        <v>0</v>
+      </c>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B32" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="22">
+        <v>0</v>
+      </c>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" s="22">
+        <v>0</v>
+      </c>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" s="22">
+        <v>0</v>
+      </c>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" s="22">
+        <v>0</v>
+      </c>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B36" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" s="22">
+        <v>0.1</v>
+      </c>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B37" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" s="22">
+        <v>0.1</v>
+      </c>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C28:E28"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C30:C37">
     <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="num" val="1"/>
+        <color theme="5" tint="0.79998168889431442"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{69B02ED0-614D-4531-A9D2-CE656965169D}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6:D13">
+    <cfRule type="dataBar" priority="14">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="num" val="1"/>
@@ -1434,13 +1567,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{96718EAC-E289-4B38-A529-60F6210E9336}</x14:id>
+          <x14:id>{218DF667-7B75-47F4-992A-2C0AC3013C30}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H16:H23">
-    <cfRule type="dataBar" priority="2">
+  <conditionalFormatting sqref="D18:D25">
+    <cfRule type="dataBar" priority="12">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="num" val="1"/>
@@ -1448,13 +1581,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{F517A6F4-0B3B-4055-9322-0A7606131EB1}</x14:id>
+          <x14:id>{3B3682A7-671C-4DDA-97B5-90AACD62B850}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M16:M23">
-    <cfRule type="dataBar" priority="1">
+  <conditionalFormatting sqref="D30:D37">
+    <cfRule type="dataBar" priority="10">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="num" val="1"/>
@@ -1462,7 +1595,119 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{61ABBC32-9EBF-48D6-9CA6-DE751C46B3BE}</x14:id>
+          <x14:id>{B933E20F-2135-4BE0-8960-BF111222C74A}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E13">
+    <cfRule type="dataBar" priority="13">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{C5A20E9F-23E2-41ED-B267-7408E875A225}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E18:E25">
+    <cfRule type="dataBar" priority="11">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{BE1B6B78-C704-4F1D-944F-A8B34C89FE32}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30:E37">
+    <cfRule type="dataBar" priority="9">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="num" val="1"/>
+        <color theme="5" tint="0.79998168889431442"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{4A96B587-42F6-49BF-B029-CB7B2F19FFB4}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6:F13">
+    <cfRule type="dataBar" priority="8">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{27E476B1-7758-4C0C-B92B-CFDA5463CC81}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F18:F25">
+    <cfRule type="dataBar" priority="7">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{1C3EBAF3-5198-423D-94D4-A90DCA5F065E}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F30:F37">
+    <cfRule type="dataBar" priority="6">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="num" val="1"/>
+        <color theme="5" tint="0.79998168889431442"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{DDDC5410-E9CF-427F-9C03-C29A29EE8CDA}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6:C13">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{08B723B4-A0C0-4964-8BCE-AC23E2860562}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18:C25">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{D76FE348-42B8-4C19-B872-BDF0BAA6A7D5}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -1472,7 +1717,22 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{96718EAC-E289-4B38-A529-60F6210E9336}">
+          <x14:cfRule type="dataBar" id="{69B02ED0-614D-4531-A9D2-CE656965169D}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor theme="5" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C30:C37</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{218DF667-7B75-47F4-992A-2C0AC3013C30}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="num">
@@ -1484,10 +1744,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C16:C23</xm:sqref>
+          <xm:sqref>D6:D13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{F517A6F4-0B3B-4055-9322-0A7606131EB1}">
+          <x14:cfRule type="dataBar" id="{3B3682A7-671C-4DDA-97B5-90AACD62B850}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="num">
@@ -1499,10 +1759,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H16:H23</xm:sqref>
+          <xm:sqref>D18:D25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{61ABBC32-9EBF-48D6-9CA6-DE751C46B3BE}">
+          <x14:cfRule type="dataBar" id="{B933E20F-2135-4BE0-8960-BF111222C74A}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="num">
@@ -1514,7 +1774,127 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>M16:M23</xm:sqref>
+          <xm:sqref>D30:D37</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{C5A20E9F-23E2-41ED-B267-7408E875A225}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E6:E13</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{BE1B6B78-C704-4F1D-944F-A8B34C89FE32}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E18:E25</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{4A96B587-42F6-49BF-B029-CB7B2F19FFB4}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor theme="5" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E30:E37</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{27E476B1-7758-4C0C-B92B-CFDA5463CC81}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F6:F13</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{1C3EBAF3-5198-423D-94D4-A90DCA5F065E}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F18:F25</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{DDDC5410-E9CF-427F-9C03-C29A29EE8CDA}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor theme="5" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F30:F37</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{08B723B4-A0C0-4964-8BCE-AC23E2860562}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C6:C13</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{D76FE348-42B8-4C19-B872-BDF0BAA6A7D5}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C18:C25</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
